--- a/surveyapp/data/users_surveys/Qmi9nT6p5G-tm03YAAsHhCaf_5XHOwXocy9IiDPYSKc.xlsx
+++ b/surveyapp/data/users_surveys/Qmi9nT6p5G-tm03YAAsHhCaf_5XHOwXocy9IiDPYSKc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>conversation</t>
   </si>
@@ -31,19 +31,22 @@
     <t>reason</t>
   </si>
   <si>
-    <t>conversation_11_07_2023__09_31_44</t>
+    <t>conv_7</t>
+  </si>
+  <si>
+    <t>conv_5</t>
   </si>
   <si>
     <t>conversation_11_07_2023__09_38_05</t>
   </si>
   <si>
-    <t>conv_4</t>
-  </si>
-  <si>
-    <t>conv_2</t>
-  </si>
-  <si>
-    <t>conv_5</t>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>dxw</t>
+  </si>
+  <si>
+    <t>ded</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +432,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1689142078422</v>
+        <v>1689150986506</v>
       </c>
       <c r="C2">
-        <v>1689142112904</v>
+        <v>1689150989707</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,25 +449,33 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1689142114702</v>
+        <v>1689150991172</v>
       </c>
       <c r="C3">
-        <v>1689142414702</v>
+        <v>1689150993837</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1689150995253</v>
+      </c>
+      <c r="C4">
+        <v>1689150998124</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/surveyapp/data/users_surveys/Qmi9nT6p5G-tm03YAAsHhCaf_5XHOwXocy9IiDPYSKc.xlsx
+++ b/surveyapp/data/users_surveys/Qmi9nT6p5G-tm03YAAsHhCaf_5XHOwXocy9IiDPYSKc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>conversation</t>
   </si>
@@ -31,22 +31,13 @@
     <t>reason</t>
   </si>
   <si>
-    <t>conv_7</t>
-  </si>
-  <si>
-    <t>conv_5</t>
-  </si>
-  <si>
-    <t>conversation_11_07_2023__09_38_05</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>dxw</t>
-  </si>
-  <si>
-    <t>ded</t>
+    <t>conversation_11_07_2023__14_51_17</t>
+  </si>
+  <si>
+    <t>conversation_11_07_2023__13_22_32</t>
+  </si>
+  <si>
+    <t>conversation_11_07_2023__13_09_34</t>
   </si>
 </sst>
 </file>
@@ -431,51 +422,15 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1689150986506</v>
-      </c>
-      <c r="C2">
-        <v>1689150989707</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1689150991172</v>
-      </c>
-      <c r="C3">
-        <v>1689150993837</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1689150995253</v>
-      </c>
-      <c r="C4">
-        <v>1689150998124</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
